--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il10-Il10ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il10-Il10ra.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8413286666666666</v>
+        <v>1.424164</v>
       </c>
       <c r="H2">
-        <v>2.523986</v>
+        <v>4.272492</v>
       </c>
       <c r="I2">
-        <v>0.02028001244158346</v>
+        <v>0.03823384556371837</v>
       </c>
       <c r="J2">
-        <v>0.02028001244158346</v>
+        <v>0.03823384556371837</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.053067</v>
+        <v>0.1005383333333333</v>
       </c>
       <c r="N2">
-        <v>0.159201</v>
+        <v>0.301615</v>
       </c>
       <c r="O2">
-        <v>0.0008795792419895586</v>
+        <v>0.0006585930795375908</v>
       </c>
       <c r="P2">
-        <v>0.0008795792419895586</v>
+        <v>0.0006585930795375907</v>
       </c>
       <c r="Q2">
-        <v>0.044646788354</v>
+        <v>0.1431830749533334</v>
       </c>
       <c r="R2">
-        <v>0.401821095186</v>
+        <v>1.28864767458</v>
       </c>
       <c r="S2">
-        <v>1.783787797090679E-05</v>
+        <v>2.518054609237394E-05</v>
       </c>
       <c r="T2">
-        <v>1.783787797090679E-05</v>
+        <v>2.518054609237393E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8413286666666666</v>
+        <v>1.424164</v>
       </c>
       <c r="H3">
-        <v>2.523986</v>
+        <v>4.272492</v>
       </c>
       <c r="I3">
-        <v>0.02028001244158346</v>
+        <v>0.03823384556371837</v>
       </c>
       <c r="J3">
-        <v>0.02028001244158346</v>
+        <v>0.03823384556371837</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>17.94924733333334</v>
+        <v>89.19784566666665</v>
       </c>
       <c r="N3">
-        <v>53.847742</v>
+        <v>267.593537</v>
       </c>
       <c r="O3">
-        <v>0.297506649400502</v>
+        <v>0.5843053283065703</v>
       </c>
       <c r="P3">
-        <v>0.297506649400502</v>
+        <v>0.5843053283065702</v>
       </c>
       <c r="Q3">
-        <v>15.10121632662356</v>
+        <v>127.0323606760226</v>
       </c>
       <c r="R3">
-        <v>135.910946939612</v>
+        <v>1143.291246084204</v>
       </c>
       <c r="S3">
-        <v>0.006033438551295989</v>
+        <v>0.02234023968453117</v>
       </c>
       <c r="T3">
-        <v>0.006033438551295989</v>
+        <v>0.02234023968453116</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8413286666666666</v>
+        <v>1.424164</v>
       </c>
       <c r="H4">
-        <v>2.523986</v>
+        <v>4.272492</v>
       </c>
       <c r="I4">
-        <v>0.02028001244158346</v>
+        <v>0.03823384556371837</v>
       </c>
       <c r="J4">
-        <v>0.02028001244158346</v>
+        <v>0.03823384556371837</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,22 +688,22 @@
         <v>0.149832</v>
       </c>
       <c r="O4">
-        <v>0.0008278158867455577</v>
+        <v>0.0003271664814192805</v>
       </c>
       <c r="P4">
-        <v>0.0008278158867455577</v>
+        <v>0.0003271664814192805</v>
       </c>
       <c r="Q4">
-        <v>0.042019318928</v>
+        <v>0.07112844681599999</v>
       </c>
       <c r="R4">
-        <v>0.378173870352</v>
+        <v>0.640156021344</v>
       </c>
       <c r="S4">
-        <v>1.678811648254035E-05</v>
+        <v>1.250883272420991E-05</v>
       </c>
       <c r="T4">
-        <v>1.678811648254035E-05</v>
+        <v>1.25088327242099E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8413286666666666</v>
+        <v>1.424164</v>
       </c>
       <c r="H5">
-        <v>2.523986</v>
+        <v>4.272492</v>
       </c>
       <c r="I5">
-        <v>0.02028001244158346</v>
+        <v>0.03823384556371837</v>
       </c>
       <c r="J5">
-        <v>0.02028001244158346</v>
+        <v>0.03823384556371837</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.27999766666667</v>
+        <v>63.307897</v>
       </c>
       <c r="N5">
-        <v>126.839993</v>
+        <v>189.923691</v>
       </c>
       <c r="O5">
-        <v>0.7007859554707628</v>
+        <v>0.4147089121324729</v>
       </c>
       <c r="P5">
-        <v>0.7007859554707628</v>
+        <v>0.4147089121324729</v>
       </c>
       <c r="Q5">
-        <v>35.57137406356645</v>
+        <v>90.16082782310801</v>
       </c>
       <c r="R5">
-        <v>320.142366572098</v>
+        <v>811.447450407972</v>
       </c>
       <c r="S5">
-        <v>0.01421194789583402</v>
+        <v>0.01585591650037062</v>
       </c>
       <c r="T5">
-        <v>0.01421194789583402</v>
+        <v>0.01585591650037062</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>9.815265999999999</v>
       </c>
       <c r="I6">
-        <v>0.07886482595285833</v>
+        <v>0.08783524098133262</v>
       </c>
       <c r="J6">
-        <v>0.07886482595285833</v>
+        <v>0.08783524098133261</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.053067</v>
+        <v>0.1005383333333333</v>
       </c>
       <c r="N6">
-        <v>0.159201</v>
+        <v>0.301615</v>
       </c>
       <c r="O6">
-        <v>0.0008795792419895586</v>
+        <v>0.0006585930795375908</v>
       </c>
       <c r="P6">
-        <v>0.0008795792419895586</v>
+        <v>0.0006585930795375907</v>
       </c>
       <c r="Q6">
-        <v>0.173622240274</v>
+        <v>0.3289368282877778</v>
       </c>
       <c r="R6">
-        <v>1.562600162466</v>
+        <v>2.96043145459</v>
       </c>
       <c r="S6">
-        <v>6.93678638312536E-05</v>
+        <v>5.784768184982225E-05</v>
       </c>
       <c r="T6">
-        <v>6.93678638312536E-05</v>
+        <v>5.784768184982223E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.815265999999999</v>
       </c>
       <c r="I7">
-        <v>0.07886482595285833</v>
+        <v>0.08783524098133262</v>
       </c>
       <c r="J7">
-        <v>0.07886482595285833</v>
+        <v>0.08783524098133261</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.94924733333334</v>
+        <v>89.19784566666665</v>
       </c>
       <c r="N7">
-        <v>53.847742</v>
+        <v>267.593537</v>
       </c>
       <c r="O7">
-        <v>0.297506649400502</v>
+        <v>0.5843053283065703</v>
       </c>
       <c r="P7">
-        <v>0.297506649400502</v>
+        <v>0.5843053283065702</v>
       </c>
       <c r="Q7">
-        <v>58.72554569215245</v>
+        <v>291.8335272817602</v>
       </c>
       <c r="R7">
-        <v>528.529911229372</v>
+        <v>2626.501745535842</v>
       </c>
       <c r="S7">
-        <v>0.02346281012478864</v>
+        <v>0.05132259931848428</v>
       </c>
       <c r="T7">
-        <v>0.02346281012478864</v>
+        <v>0.05132259931848426</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.815265999999999</v>
       </c>
       <c r="I8">
-        <v>0.07886482595285833</v>
+        <v>0.08783524098133262</v>
       </c>
       <c r="J8">
-        <v>0.07886482595285833</v>
+        <v>0.08783524098133261</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.149832</v>
       </c>
       <c r="O8">
-        <v>0.0008278158867455577</v>
+        <v>0.0003271664814192805</v>
       </c>
       <c r="P8">
-        <v>0.0008278158867455577</v>
+        <v>0.0003271664814192805</v>
       </c>
       <c r="Q8">
         <v>0.163404548368</v>
@@ -948,10 +948,10 @@
         <v>1.470640935312</v>
       </c>
       <c r="S8">
-        <v>6.528555582919949E-05</v>
+        <v>2.873674673647719E-05</v>
       </c>
       <c r="T8">
-        <v>6.528555582919949E-05</v>
+        <v>2.873674673647717E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9.815265999999999</v>
       </c>
       <c r="I9">
-        <v>0.07886482595285833</v>
+        <v>0.08783524098133262</v>
       </c>
       <c r="J9">
-        <v>0.07886482595285833</v>
+        <v>0.08783524098133261</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.27999766666667</v>
+        <v>63.307897</v>
       </c>
       <c r="N9">
-        <v>126.839993</v>
+        <v>189.923691</v>
       </c>
       <c r="O9">
-        <v>0.7007859554707628</v>
+        <v>0.4147089121324729</v>
       </c>
       <c r="P9">
-        <v>0.7007859554707628</v>
+        <v>0.4147089121324729</v>
       </c>
       <c r="Q9">
-        <v>138.3298078592375</v>
+        <v>207.1279496518673</v>
       </c>
       <c r="R9">
-        <v>1244.968270733138</v>
+        <v>1864.151546866806</v>
       </c>
       <c r="S9">
-        <v>0.05526736240840924</v>
+        <v>0.03642605723426205</v>
       </c>
       <c r="T9">
-        <v>0.05526736240840924</v>
+        <v>0.03642605723426205</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.04648966666667</v>
+        <v>17.63507366666667</v>
       </c>
       <c r="H10">
-        <v>48.139469</v>
+        <v>52.905221</v>
       </c>
       <c r="I10">
-        <v>0.3867965314590577</v>
+        <v>0.4734403362787783</v>
       </c>
       <c r="J10">
-        <v>0.3867965314590577</v>
+        <v>0.4734403362787782</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.053067</v>
+        <v>0.1005383333333333</v>
       </c>
       <c r="N10">
-        <v>0.159201</v>
+        <v>0.301615</v>
       </c>
       <c r="O10">
-        <v>0.0008795792419895586</v>
+        <v>0.0006585930795375908</v>
       </c>
       <c r="P10">
-        <v>0.0008795792419895586</v>
+        <v>0.0006585930795375907</v>
       </c>
       <c r="Q10">
-        <v>0.851539067141</v>
+        <v>1.773000914657222</v>
       </c>
       <c r="R10">
-        <v>7.663851604269</v>
+        <v>15.957008231915</v>
       </c>
       <c r="S10">
-        <v>0.0003402181999449484</v>
+        <v>0.0003118045290471531</v>
       </c>
       <c r="T10">
-        <v>0.0003402181999449484</v>
+        <v>0.0003118045290471531</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.04648966666667</v>
+        <v>17.63507366666667</v>
       </c>
       <c r="H11">
-        <v>48.139469</v>
+        <v>52.905221</v>
       </c>
       <c r="I11">
-        <v>0.3867965314590577</v>
+        <v>0.4734403362787783</v>
       </c>
       <c r="J11">
-        <v>0.3867965314590577</v>
+        <v>0.4734403362787782</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.94924733333334</v>
+        <v>89.19784566666665</v>
       </c>
       <c r="N11">
-        <v>53.847742</v>
+        <v>267.593537</v>
       </c>
       <c r="O11">
-        <v>0.297506649400502</v>
+        <v>0.5843053283065703</v>
       </c>
       <c r="P11">
-        <v>0.297506649400502</v>
+        <v>0.5843053283065702</v>
       </c>
       <c r="Q11">
-        <v>288.0224118587776</v>
+        <v>1573.01057923963</v>
       </c>
       <c r="R11">
-        <v>2592.201706728998</v>
+        <v>14157.09521315668</v>
       </c>
       <c r="S11">
-        <v>0.1150745400741201</v>
+        <v>0.2766337111229446</v>
       </c>
       <c r="T11">
-        <v>0.1150745400741201</v>
+        <v>0.2766337111229445</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.04648966666667</v>
+        <v>17.63507366666667</v>
       </c>
       <c r="H12">
-        <v>48.139469</v>
+        <v>52.905221</v>
       </c>
       <c r="I12">
-        <v>0.3867965314590577</v>
+        <v>0.4734403362787783</v>
       </c>
       <c r="J12">
-        <v>0.3867965314590577</v>
+        <v>0.4734403362787782</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1184,22 +1184,22 @@
         <v>0.149832</v>
       </c>
       <c r="O12">
-        <v>0.0008278158867455577</v>
+        <v>0.0003271664814192805</v>
       </c>
       <c r="P12">
-        <v>0.0008278158867455577</v>
+        <v>0.0003271664814192805</v>
       </c>
       <c r="Q12">
-        <v>0.8014258799119999</v>
+        <v>0.880766119208</v>
       </c>
       <c r="R12">
-        <v>7.212832919207999</v>
+        <v>7.926895072871999</v>
       </c>
       <c r="S12">
-        <v>0.0003201963136798859</v>
+        <v>0.0001548938089822888</v>
       </c>
       <c r="T12">
-        <v>0.0003201963136798859</v>
+        <v>0.0001548938089822888</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.04648966666667</v>
+        <v>17.63507366666667</v>
       </c>
       <c r="H13">
-        <v>48.139469</v>
+        <v>52.905221</v>
       </c>
       <c r="I13">
-        <v>0.3867965314590577</v>
+        <v>0.4734403362787783</v>
       </c>
       <c r="J13">
-        <v>0.3867965314590577</v>
+        <v>0.4734403362787782</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>42.27999766666667</v>
+        <v>63.307897</v>
       </c>
       <c r="N13">
-        <v>126.839993</v>
+        <v>189.923691</v>
       </c>
       <c r="O13">
-        <v>0.7007859554707628</v>
+        <v>0.4147089121324729</v>
       </c>
       <c r="P13">
-        <v>0.7007859554707628</v>
+        <v>0.4147089121324729</v>
       </c>
       <c r="Q13">
-        <v>678.4455456648574</v>
+        <v>1116.439427276746</v>
       </c>
       <c r="R13">
-        <v>6106.009910983717</v>
+        <v>10047.95484549071</v>
       </c>
       <c r="S13">
-        <v>0.2710615768713127</v>
+        <v>0.1963399268178043</v>
       </c>
       <c r="T13">
-        <v>0.2710615768713127</v>
+        <v>0.1963399268178042</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5282783333333333</v>
+        <v>0.5460243333333333</v>
       </c>
       <c r="H14">
-        <v>1.584835</v>
+        <v>1.638073</v>
       </c>
       <c r="I14">
-        <v>0.01273401418147998</v>
+        <v>0.01465885251607185</v>
       </c>
       <c r="J14">
-        <v>0.01273401418147998</v>
+        <v>0.01465885251607185</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.053067</v>
+        <v>0.1005383333333333</v>
       </c>
       <c r="N14">
-        <v>0.159201</v>
+        <v>0.301615</v>
       </c>
       <c r="O14">
-        <v>0.0008795792419895586</v>
+        <v>0.0006585930795375908</v>
       </c>
       <c r="P14">
-        <v>0.0008795792419895586</v>
+        <v>0.0006585930795375907</v>
       </c>
       <c r="Q14">
-        <v>0.028034146315</v>
+        <v>0.05489637643277778</v>
       </c>
       <c r="R14">
-        <v>0.252307316835</v>
+        <v>0.494067387895</v>
       </c>
       <c r="S14">
-        <v>1.120057454123045E-05</v>
+        <v>9.654218821047119E-06</v>
       </c>
       <c r="T14">
-        <v>1.120057454123045E-05</v>
+        <v>9.654218821047117E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5282783333333333</v>
+        <v>0.5460243333333333</v>
       </c>
       <c r="H15">
-        <v>1.584835</v>
+        <v>1.638073</v>
       </c>
       <c r="I15">
-        <v>0.01273401418147998</v>
+        <v>0.01465885251607185</v>
       </c>
       <c r="J15">
-        <v>0.01273401418147998</v>
+        <v>0.01465885251607185</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.94924733333334</v>
+        <v>89.19784566666665</v>
       </c>
       <c r="N15">
-        <v>53.847742</v>
+        <v>267.593537</v>
       </c>
       <c r="O15">
-        <v>0.297506649400502</v>
+        <v>0.5843053283065703</v>
       </c>
       <c r="P15">
-        <v>0.297506649400502</v>
+        <v>0.5843053283065702</v>
       </c>
       <c r="Q15">
-        <v>9.482198465841112</v>
+        <v>48.70419421491121</v>
       </c>
       <c r="R15">
-        <v>85.33978619257</v>
+        <v>438.337747934201</v>
       </c>
       <c r="S15">
-        <v>0.003788453892550584</v>
+        <v>0.008565245632000956</v>
       </c>
       <c r="T15">
-        <v>0.003788453892550584</v>
+        <v>0.008565245632000954</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5282783333333333</v>
+        <v>0.5460243333333333</v>
       </c>
       <c r="H16">
-        <v>1.584835</v>
+        <v>1.638073</v>
       </c>
       <c r="I16">
-        <v>0.01273401418147998</v>
+        <v>0.01465885251607185</v>
       </c>
       <c r="J16">
-        <v>0.01273401418147998</v>
+        <v>0.01465885251607185</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1432,22 +1432,22 @@
         <v>0.149832</v>
       </c>
       <c r="O16">
-        <v>0.0008278158867455577</v>
+        <v>0.0003271664814192805</v>
       </c>
       <c r="P16">
-        <v>0.0008278158867455577</v>
+        <v>0.0003271664814192805</v>
       </c>
       <c r="Q16">
-        <v>0.02638433308</v>
+        <v>0.027270639304</v>
       </c>
       <c r="R16">
-        <v>0.23745899772</v>
+        <v>0.245435753736</v>
       </c>
       <c r="S16">
-        <v>1.054141924147235E-05</v>
+        <v>4.795885199327394E-06</v>
       </c>
       <c r="T16">
-        <v>1.054141924147235E-05</v>
+        <v>4.795885199327393E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5282783333333333</v>
+        <v>0.5460243333333333</v>
       </c>
       <c r="H17">
-        <v>1.584835</v>
+        <v>1.638073</v>
       </c>
       <c r="I17">
-        <v>0.01273401418147998</v>
+        <v>0.01465885251607185</v>
       </c>
       <c r="J17">
-        <v>0.01273401418147998</v>
+        <v>0.01465885251607185</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.27999766666667</v>
+        <v>63.307897</v>
       </c>
       <c r="N17">
-        <v>126.839993</v>
+        <v>189.923691</v>
       </c>
       <c r="O17">
-        <v>0.7007859554707628</v>
+        <v>0.4147089121324729</v>
       </c>
       <c r="P17">
-        <v>0.7007859554707628</v>
+        <v>0.4147089121324729</v>
       </c>
       <c r="Q17">
-        <v>22.33560670068389</v>
+        <v>34.56765225416034</v>
       </c>
       <c r="R17">
-        <v>201.020460306155</v>
+        <v>311.108870287443</v>
       </c>
       <c r="S17">
-        <v>0.00892381829514669</v>
+        <v>0.006079156780050519</v>
       </c>
       <c r="T17">
-        <v>0.00892381829514669</v>
+        <v>0.006079156780050519</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.797757</v>
+        <v>14.37176</v>
       </c>
       <c r="H18">
-        <v>62.393271</v>
+        <v>43.11528</v>
       </c>
       <c r="I18">
-        <v>0.5013246159650206</v>
+        <v>0.385831724660099</v>
       </c>
       <c r="J18">
-        <v>0.5013246159650205</v>
+        <v>0.3858317246600989</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1550,28 +1550,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.053067</v>
+        <v>0.1005383333333333</v>
       </c>
       <c r="N18">
-        <v>0.159201</v>
+        <v>0.301615</v>
       </c>
       <c r="O18">
-        <v>0.0008795792419895586</v>
+        <v>0.0006585930795375908</v>
       </c>
       <c r="P18">
-        <v>0.0008795792419895586</v>
+        <v>0.0006585930795375907</v>
       </c>
       <c r="Q18">
-        <v>1.103674570719</v>
+        <v>1.444912797466667</v>
       </c>
       <c r="R18">
-        <v>9.933071136471</v>
+        <v>13.0042151772</v>
       </c>
       <c r="S18">
-        <v>0.0004409547257012195</v>
+        <v>0.0002541061037271944</v>
       </c>
       <c r="T18">
-        <v>0.0004409547257012194</v>
+        <v>0.0002541061037271943</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.797757</v>
+        <v>14.37176</v>
       </c>
       <c r="H19">
-        <v>62.393271</v>
+        <v>43.11528</v>
       </c>
       <c r="I19">
-        <v>0.5013246159650206</v>
+        <v>0.385831724660099</v>
       </c>
       <c r="J19">
-        <v>0.5013246159650205</v>
+        <v>0.3858317246600989</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.94924733333334</v>
+        <v>89.19784566666665</v>
       </c>
       <c r="N19">
-        <v>53.847742</v>
+        <v>267.593537</v>
       </c>
       <c r="O19">
-        <v>0.297506649400502</v>
+        <v>0.5843053283065703</v>
       </c>
       <c r="P19">
-        <v>0.297506649400502</v>
+        <v>0.5843053283065702</v>
       </c>
       <c r="Q19">
-        <v>373.3040843715647</v>
+        <v>1281.930030438373</v>
       </c>
       <c r="R19">
-        <v>3359.736759344082</v>
+        <v>11537.37027394536</v>
       </c>
       <c r="S19">
-        <v>0.1491474067577467</v>
+        <v>0.2254435325486094</v>
       </c>
       <c r="T19">
-        <v>0.1491474067577467</v>
+        <v>0.2254435325486093</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.797757</v>
+        <v>14.37176</v>
       </c>
       <c r="H20">
-        <v>62.393271</v>
+        <v>43.11528</v>
       </c>
       <c r="I20">
-        <v>0.5013246159650206</v>
+        <v>0.385831724660099</v>
       </c>
       <c r="J20">
-        <v>0.5013246159650205</v>
+        <v>0.3858317246600989</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1680,22 +1680,22 @@
         <v>0.149832</v>
       </c>
       <c r="O20">
-        <v>0.0008278158867455577</v>
+        <v>0.0003271664814192805</v>
       </c>
       <c r="P20">
-        <v>0.0008278158867455577</v>
+        <v>0.0003271664814192805</v>
       </c>
       <c r="Q20">
-        <v>1.038723175608</v>
+        <v>0.71778318144</v>
       </c>
       <c r="R20">
-        <v>9.348508580472</v>
+        <v>6.46004863296</v>
       </c>
       <c r="S20">
-        <v>0.0004150044815124597</v>
+        <v>0.0001262312077769772</v>
       </c>
       <c r="T20">
-        <v>0.0004150044815124596</v>
+        <v>0.0001262312077769772</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.797757</v>
+        <v>14.37176</v>
       </c>
       <c r="H21">
-        <v>62.393271</v>
+        <v>43.11528</v>
       </c>
       <c r="I21">
-        <v>0.5013246159650206</v>
+        <v>0.385831724660099</v>
       </c>
       <c r="J21">
-        <v>0.5013246159650205</v>
+        <v>0.3858317246600989</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>42.27999766666667</v>
+        <v>63.307897</v>
       </c>
       <c r="N21">
-        <v>126.839993</v>
+        <v>189.923691</v>
       </c>
       <c r="O21">
-        <v>0.7007859554707628</v>
+        <v>0.4147089121324729</v>
       </c>
       <c r="P21">
-        <v>0.7007859554707628</v>
+        <v>0.4147089121324729</v>
       </c>
       <c r="Q21">
-        <v>879.3291174319004</v>
+        <v>909.8459017887201</v>
       </c>
       <c r="R21">
-        <v>7913.962056887102</v>
+        <v>8188.613116098481</v>
       </c>
       <c r="S21">
-        <v>0.3513212500000603</v>
+        <v>0.1600078547999855</v>
       </c>
       <c r="T21">
-        <v>0.3513212500000601</v>
+        <v>0.1600078547999854</v>
       </c>
     </row>
   </sheetData>
